--- a/Data/Output/MonthReport.xlsx
+++ b/Data/Output/MonthReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adriano\Meus Arquivos\UiPath\Projetos\UipathAcademy\BasicProjects\ExcelDataConsolidation\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF9CB22-7FD4-41F2-B804-4E46C8F306A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9759C3C4-A0A7-4787-9F95-506242635B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{7AD1A6E3-8DA2-4C35-A443-F92E64204A6B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="8964" xr2:uid="{C060DBF2-F019-4EBB-8513-C6BB255E8FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -429,7 +429,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6A61E8AA-0442-46E8-B8ED-CDE3CFAB8E25}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{76C974E3-8D3D-45FA-AFB6-0DC781297036}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,6 +442,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{406AA0B2-AC61-424D-9BE6-5CF7E76D03FE}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{406AA0B2-AC61-424D-9BE6-5CF7E76D03FE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8B00F7A1-2EB8-4A30-8C5E-255E64381194}" name="Doc. Number"/>
+    <tableColumn id="2" xr3:uid="{D68326B3-6777-446A-A179-3B48B71779E6}" name="Client Name"/>
+    <tableColumn id="3" xr3:uid="{02D6783F-341C-46D7-A058-51091FD072A5}" name="Agent Name"/>
+    <tableColumn id="4" xr3:uid="{40EE53FD-9F66-490F-A25D-AD7D613AE3CF}" name="Total Sales"/>
+    <tableColumn id="5" xr3:uid="{3CC12A74-C9F3-4525-8A89-D8CB15F4B82A}" name="Proft Per Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,20 +774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33324C62-93E6-40C6-979D-A92A3223F8A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729BB17-C715-46E2-AD32-91F38B9043B5}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2495,11 +2509,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35E5D02-2752-437E-A5D0-A6C91762FEFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDE4A9C-15A6-4317-A187-B992B888D6BD}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDF3A4-113A-450C-8452-E8CCFAF6B2A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E94E91C-7902-4DA4-9826-05FBBD194AD4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
